--- a/Session 2/Data Sources/DataAnslysis.xlsx
+++ b/Session 2/Data Sources/DataAnslysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://b2wcompletetraining057-my.sharepoint.com/personal/michael_chittenden_justit_co_uk/Documents/Scenario-Demonstration-Training/Session 2/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAFC7D3F-3D86-404F-8C3E-E160B0456816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{CAFC7D3F-3D86-404F-8C3E-E160B0456816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A181BC-FFC6-426A-BE90-E60FEEE19C50}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9BB4D2A1-FDFC-4D4B-95EB-21AD45D4BCEB}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{9BB4D2A1-FDFC-4D4B-95EB-21AD45D4BCEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="9" r:id="rId1"/>
@@ -58,30 +58,8 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="145">
   <si>
     <t>PT1001</t>
   </si>
@@ -494,28 +472,7 @@
     <t>Patients in Dataset</t>
   </si>
   <si>
-    <t>Pateitns in Dataset</t>
-  </si>
-  <si>
-    <t>Total Appt Number</t>
-  </si>
-  <si>
-    <t>Average Per Patient</t>
-  </si>
-  <si>
     <t>Attendance Status</t>
-  </si>
-  <si>
-    <t>Total Appointmments (M)</t>
-  </si>
-  <si>
-    <t>Total  Appointments (F)</t>
-  </si>
-  <si>
-    <t>Average Appts (M)</t>
-  </si>
-  <si>
-    <t>Average Appts (F)</t>
   </si>
   <si>
     <t>Level 2 - Analysing and segmenting patient data to support decisions</t>
@@ -559,21 +516,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -581,34 +532,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -627,7 +559,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +591,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -675,13 +612,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -697,10 +631,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,25 +651,25 @@
     <tableColumn id="12" xr3:uid="{7353B3EE-CA22-4DF5-942D-06BA86579F04}" name="Month"/>
     <tableColumn id="13" xr3:uid="{6759A76F-2370-429F-A221-1B39DE7EDAED}" name="Outcome"/>
     <tableColumn id="14" xr3:uid="{279255DA-7390-40DD-AF88-F66DB9AE3477}" name="Follow Up"/>
-    <tableColumn id="19" xr3:uid="{531A00A7-741B-4C81-A98E-FE543B4BD1E7}" name="Attendance Status" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{531A00A7-741B-4C81-A98E-FE543B4BD1E7}" name="Attendance Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5D5AF-A45C-4D23-B4A4-503C1E6FEB22}" name="Table469" displayName="Table469" ref="A3:U38" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5D5AF-A45C-4D23-B4A4-503C1E6FEB22}" name="Table469" displayName="Table469" ref="A3:U38" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A3:U38" xr:uid="{B5E33AA9-D9A2-429B-AA7C-2FD5D18346FC}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{E49B65D3-9D8E-4970-A9E8-04AD52D3536D}" name=" Patient ID "/>
     <tableColumn id="2" xr3:uid="{53ABDA53-1F6E-4A87-992E-682D736DA281}" name="Full"/>
     <tableColumn id="3" xr3:uid="{02E1E92D-4FD4-47F0-B434-6123D523CEED}" name="Name"/>
     <tableColumn id="4" xr3:uid="{F682434D-A6B5-4924-BC14-D70EB3D5B83B}" name="DOB" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{72A21E61-FDA7-48E0-BB2F-8A41BF1B83D9}" name="Simple Age" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{21A58180-7406-4E4C-AB07-2C237724DABB}" name="Birth Month" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{85AE96F9-A575-401D-B5C5-635B7EC0DFA3}" name="Current Month" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{A7CD2952-1629-454C-8DCC-17F526FEBED8}" name="Calculated Age" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{C8BACC46-6D05-48DC-87A4-16C18F7948BF}" name="Calculated Age2" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{72A21E61-FDA7-48E0-BB2F-8A41BF1B83D9}" name="Simple Age" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{21A58180-7406-4E4C-AB07-2C237724DABB}" name="Birth Month" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{85AE96F9-A575-401D-B5C5-635B7EC0DFA3}" name="Current Month" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{A7CD2952-1629-454C-8DCC-17F526FEBED8}" name="Calculated Age" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{C8BACC46-6D05-48DC-87A4-16C18F7948BF}" name="Calculated Age2" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{7D9EDD0A-C071-4598-BE75-C7AD65B5FD06}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{5F516E8D-5EB6-48DE-A7F8-A23E04951C58}" name="GP"/>
     <tableColumn id="7" xr3:uid="{6E311AC3-9F89-43C9-81BC-D4D548A1B31C}" name="On Meds?"/>
@@ -750,10 +680,10 @@
     <tableColumn id="12" xr3:uid="{886EDEBA-AE46-49DA-B105-4D5E877207C7}" name="Month"/>
     <tableColumn id="13" xr3:uid="{EB2CEA37-ADAE-4324-88F1-B48E6BFF89ED}" name="Outcome"/>
     <tableColumn id="14" xr3:uid="{C6623F14-441E-4A45-B41D-1CE956A593BC}" name="Follow Up"/>
-    <tableColumn id="19" xr3:uid="{B6928144-F8C3-4EF9-A3B3-9F8C741C9CE1}" name="Attendance Status" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{B6928144-F8C3-4EF9-A3B3-9F8C741C9CE1}" name="Attendance Status" dataDxfId="4">
       <calculatedColumnFormula>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{C610BB5F-E4FA-4841-888D-9EF28367A476}" name="Follow Up action" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{C610BB5F-E4FA-4841-888D-9EF28367A476}" name="Follow Up action" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1099,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32680BBC-64E8-48F4-BC1E-787BBAED8270}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,28 +1047,27 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1182,14 +1111,10 @@
         <v>135</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1276,12 +1201,8 @@
       <c r="N5" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1368,12 +1289,8 @@
       <c r="N7" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1460,13 +1377,8 @@
       <c r="N9" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="5" cm="1">
-        <f t="array" ref="Q9">_xlfn.UNIQUE(Table46[Attendance Status])</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1509,10 +1421,8 @@
       <c r="N10" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1599,12 +1509,8 @@
       <c r="N12" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1647,12 +1553,8 @@
       <c r="N13" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1696,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1739,12 +1641,8 @@
       <c r="N15" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1787,10 +1685,6 @@
       <c r="N16" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2780,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B250BA-D121-4B99-9EB2-699DEC2E27E4}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
@@ -2788,11 +2682,11 @@
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" customWidth="1"/>
@@ -2804,99 +2698,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>149</v>
+      <c r="T3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4580,21 +4474,21 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D43"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D44"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
